--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/artfynd/A 18197-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/artfynd/A 18197-2020.xlsx", "A 18197-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/kartor/A 18197-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/kartor/A 18197-2020.png", "A 18197-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomål/A 18197-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomål/A 18197-2020.docx", "A 18197-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomålsmail/A 18197-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomålsmail/A 18197-2020.docx", "A 18197-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsyn/A 18197-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsyn/A 18197-2020.docx", "A 18197-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsynsmail/A 18197-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsynsmail/A 18197-2020.docx", "A 18197-2020")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/artfynd/A 2943-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/artfynd/A 2943-2023.xlsx", "A 2943-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/kartor/A 2943-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/kartor/A 2943-2023.png", "A 2943-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomål/A 2943-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomål/A 2943-2023.docx", "A 2943-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomålsmail/A 2943-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomålsmail/A 2943-2023.docx", "A 2943-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsyn/A 2943-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsyn/A 2943-2023.docx", "A 2943-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsynsmail/A 2943-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsynsmail/A 2943-2023.docx", "A 2943-2023")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -797,27 +797,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/artfynd/A 2675-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/artfynd/A 2675-2019.xlsx", "A 2675-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/kartor/A 2675-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/kartor/A 2675-2019.png", "A 2675-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomål/A 2675-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomål/A 2675-2019.docx", "A 2675-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomålsmail/A 2675-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomålsmail/A 2675-2019.docx", "A 2675-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsyn/A 2675-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsyn/A 2675-2019.docx", "A 2675-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsynsmail/A 2675-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsynsmail/A 2675-2019.docx", "A 2675-2019")</f>
         <v/>
       </c>
     </row>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,27 +882,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/artfynd/A 389-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/artfynd/A 389-2023.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/kartor/A 389-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/kartor/A 389-2023.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomål/A 389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomål/A 389-2023.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomålsmail/A 389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/klagomålsmail/A 389-2023.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsyn/A 389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsyn/A 389-2023.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsynsmail/A 389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BASTAD/tillsynsmail/A 389-2023.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="R27" s="2" t="inlineStr"/>
     </row>
-    <row r="28">
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
           <t>A 28260-2023</t>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2216,6 +2216,63 @@
         <v>0</v>
       </c>
       <c r="R28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 46947-2023</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BÅSTAD</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45201</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45201</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45201</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43927</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44945</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43469</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43469</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43628</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43847</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>43927</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44191</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44811</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44957</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45082</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45099</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45201</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
